--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/MultipleRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/MultipleRanges.xlsx
@@ -393,10 +393,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="16384" width="9.850625" style="0" customWidth="1"/>
-  </x:cols>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:6">
       <x:c r="A1" s="1" t="s"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/MultipleRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/MultipleRanges.xlsx
@@ -70,7 +70,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="3">
+  <x:cellStyleXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -80,8 +80,14 @@
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -92,6 +98,14 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -396,36 +410,36 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:6">
-      <x:c r="A1" s="1" t="s"/>
-      <x:c r="B1" s="1" t="s"/>
-      <x:c r="E1" s="2" t="s"/>
-      <x:c r="F1" s="2" t="s"/>
+      <x:c r="A1" s="3" t="s"/>
+      <x:c r="B1" s="3" t="s"/>
+      <x:c r="E1" s="4" t="s"/>
+      <x:c r="F1" s="4" t="s"/>
     </x:row>
     <x:row r="2" spans="1:6">
-      <x:c r="A2" s="1" t="s"/>
-      <x:c r="B2" s="1" t="s"/>
-      <x:c r="E2" s="2" t="s"/>
-      <x:c r="F2" s="2" t="s"/>
+      <x:c r="A2" s="3" t="s"/>
+      <x:c r="B2" s="3" t="s"/>
+      <x:c r="E2" s="4" t="s"/>
+      <x:c r="F2" s="4" t="s"/>
     </x:row>
     <x:row r="3" spans="1:6">
-      <x:c r="C3" s="1" t="s"/>
-      <x:c r="D3" s="1" t="s"/>
+      <x:c r="C3" s="3" t="s"/>
+      <x:c r="D3" s="3" t="s"/>
     </x:row>
     <x:row r="4" spans="1:6">
-      <x:c r="C4" s="1" t="s"/>
-      <x:c r="D4" s="1" t="s"/>
+      <x:c r="C4" s="3" t="s"/>
+      <x:c r="D4" s="3" t="s"/>
     </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="A5" s="2" t="s"/>
-      <x:c r="B5" s="2" t="s"/>
-      <x:c r="E5" s="1" t="s"/>
-      <x:c r="F5" s="1" t="s"/>
+      <x:c r="A5" s="4" t="s"/>
+      <x:c r="B5" s="4" t="s"/>
+      <x:c r="E5" s="3" t="s"/>
+      <x:c r="F5" s="3" t="s"/>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="A6" s="2" t="s"/>
-      <x:c r="B6" s="2" t="s"/>
-      <x:c r="E6" s="1" t="s"/>
-      <x:c r="F6" s="1" t="s"/>
+      <x:c r="A6" s="4" t="s"/>
+      <x:c r="B6" s="4" t="s"/>
+      <x:c r="E6" s="3" t="s"/>
+      <x:c r="F6" s="3" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/MultipleRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/MultipleRanges.xlsx
@@ -70,7 +70,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="5">
+  <x:cellStyleXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -80,14 +80,8 @@
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="5">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -98,14 +92,6 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -410,36 +396,36 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:6">
-      <x:c r="A1" s="3" t="s"/>
-      <x:c r="B1" s="3" t="s"/>
-      <x:c r="E1" s="4" t="s"/>
-      <x:c r="F1" s="4" t="s"/>
+      <x:c r="A1" s="1" t="s"/>
+      <x:c r="B1" s="1" t="s"/>
+      <x:c r="E1" s="2" t="s"/>
+      <x:c r="F1" s="2" t="s"/>
     </x:row>
     <x:row r="2" spans="1:6">
-      <x:c r="A2" s="3" t="s"/>
-      <x:c r="B2" s="3" t="s"/>
-      <x:c r="E2" s="4" t="s"/>
-      <x:c r="F2" s="4" t="s"/>
+      <x:c r="A2" s="1" t="s"/>
+      <x:c r="B2" s="1" t="s"/>
+      <x:c r="E2" s="2" t="s"/>
+      <x:c r="F2" s="2" t="s"/>
     </x:row>
     <x:row r="3" spans="1:6">
-      <x:c r="C3" s="3" t="s"/>
-      <x:c r="D3" s="3" t="s"/>
+      <x:c r="C3" s="1" t="s"/>
+      <x:c r="D3" s="1" t="s"/>
     </x:row>
     <x:row r="4" spans="1:6">
-      <x:c r="C4" s="3" t="s"/>
-      <x:c r="D4" s="3" t="s"/>
+      <x:c r="C4" s="1" t="s"/>
+      <x:c r="D4" s="1" t="s"/>
     </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="A5" s="4" t="s"/>
-      <x:c r="B5" s="4" t="s"/>
-      <x:c r="E5" s="3" t="s"/>
-      <x:c r="F5" s="3" t="s"/>
+      <x:c r="A5" s="2" t="s"/>
+      <x:c r="B5" s="2" t="s"/>
+      <x:c r="E5" s="1" t="s"/>
+      <x:c r="F5" s="1" t="s"/>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="A6" s="4" t="s"/>
-      <x:c r="B6" s="4" t="s"/>
-      <x:c r="E6" s="3" t="s"/>
-      <x:c r="F6" s="3" t="s"/>
+      <x:c r="A6" s="2" t="s"/>
+      <x:c r="B6" s="2" t="s"/>
+      <x:c r="E6" s="1" t="s"/>
+      <x:c r="F6" s="1" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/MultipleRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/MultipleRanges.xlsx
@@ -431,14 +431,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/MultipleRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/MultipleRanges.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/MultipleRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/MultipleRanges.xlsx
@@ -22,7 +22,14 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="2">
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/MultipleRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/MultipleRanges.xlsx
@@ -398,7 +398,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:F6"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/MultipleRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/MultipleRanges.xlsx
@@ -78,26 +78,26 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="3">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="3">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
